--- a/data/raw/countries.xlsx
+++ b/data/raw/countries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/themoon/Documents/Work/ADB/mrio-processing/data/interim/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/themoon/Documents/Work/ADB/mrio-processing/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBFDFBE-A1FC-2E42-89F6-1A16BA0029DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B434E22C-73EE-0E49-825A-F439E8BDA8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="500" windowWidth="27640" windowHeight="16300" xr2:uid="{D9E98D74-C369-4244-B24B-2BDA87339BA7}"/>
+    <workbookView xWindow="12480" yWindow="780" windowWidth="27640" windowHeight="16300" activeTab="1" xr2:uid="{D9E98D74-C369-4244-B24B-2BDA87339BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated" sheetId="2" r:id="rId1"/>
@@ -3589,11 +3589,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B45EE7-D823-5A4C-ACCA-52260AECB980}">
   <dimension ref="A1:T242"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6136,9 +6136,9 @@
         <f>IFERROR(IF(VLOOKUP($A32,RTAs!B:B,1,FALSE)="","",1),"")</f>
         <v/>
       </c>
-      <c r="R32" s="3" t="str">
+      <c r="R32" s="3">
         <f>IFERROR(IF(VLOOKUP($A32,RTAs!C:C,1,FALSE)="","",1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="S32" s="3" t="str">
         <f>IFERROR(IF(VLOOKUP($A32,RTAs!D:D,1,FALSE)="","",1),"")</f>
@@ -9015,9 +9015,9 @@
         <f>IFERROR(IF(VLOOKUP($A68,RTAs!B:B,1,FALSE)="","",1),"")</f>
         <v/>
       </c>
-      <c r="R68" s="3">
+      <c r="R68" s="3" t="str">
         <f>IFERROR(IF(VLOOKUP($A68,RTAs!C:C,1,FALSE)="","",1),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="S68" s="3" t="str">
         <f>IFERROR(IF(VLOOKUP($A68,RTAs!D:D,1,FALSE)="","",1),"")</f>
@@ -22930,8 +22930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC5D053-3C18-CD47-AFF6-A081CA3F56E2}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22987,25 +22987,25 @@
       <c r="E2" s="3">
         <v>4</v>
       </c>
-      <c r="F2">
-        <f>VLOOKUP(A2,Consolidated!$A:$L,11,FALSE)</f>
-        <v>55</v>
+      <c r="F2" t="str">
+        <f>VLOOKUP(A2,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Brunei Darussalam</v>
       </c>
       <c r="G2" t="str">
-        <f>VLOOKUP(B2,Consolidated!$A:$L,11,FALSE)</f>
-        <v/>
-      </c>
-      <c r="H2">
-        <f>VLOOKUP(C2,Consolidated!$A:$L,11,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <f>VLOOKUP(D2,Consolidated!$A:$L,11,FALSE)</f>
-        <v>6</v>
+        <f>VLOOKUP(B2,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Armenia</v>
+      </c>
+      <c r="H2" t="str">
+        <f>VLOOKUP(C2,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Austria</v>
+      </c>
+      <c r="I2" t="str">
+        <f>VLOOKUP(D2,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Canada</v>
       </c>
       <c r="J2" t="str">
-        <f>VLOOKUP(E2,Consolidated!$A:$L,11,FALSE)</f>
-        <v/>
+        <f>VLOOKUP(E2,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Afghanistan</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -23024,25 +23024,25 @@
       <c r="E3" s="3">
         <v>50</v>
       </c>
-      <c r="F3">
-        <f>VLOOKUP(A3,Consolidated!$A:$L,11,FALSE)</f>
-        <v>58</v>
+      <c r="F3" t="str">
+        <f>VLOOKUP(A3,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Cambodia</v>
       </c>
       <c r="G3" t="str">
-        <f>VLOOKUP(B3,Consolidated!$A:$L,11,FALSE)</f>
-        <v/>
-      </c>
-      <c r="H3">
-        <f>VLOOKUP(C3,Consolidated!$A:$L,11,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <f>VLOOKUP(D3,Consolidated!$A:$L,11,FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="J3">
-        <f>VLOOKUP(E3,Consolidated!$A:$L,11,FALSE)</f>
-        <v>44</v>
+        <f>VLOOKUP(B3,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Belarus</v>
+      </c>
+      <c r="H3" t="str">
+        <f>VLOOKUP(C3,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Belgium</v>
+      </c>
+      <c r="I3" t="str">
+        <f>VLOOKUP(D3,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Mexico</v>
+      </c>
+      <c r="J3" t="str">
+        <f>VLOOKUP(E3,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Bangladesh</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -23061,25 +23061,25 @@
       <c r="E4" s="3">
         <v>64</v>
       </c>
-      <c r="F4">
-        <f>VLOOKUP(A4,Consolidated!$A:$L,11,FALSE)</f>
-        <v>21</v>
-      </c>
-      <c r="G4">
-        <f>VLOOKUP(B4,Consolidated!$A:$L,11,FALSE)</f>
-        <v>49</v>
-      </c>
-      <c r="H4">
-        <f>VLOOKUP(C4,Consolidated!$A:$L,11,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <f>VLOOKUP(D4,Consolidated!$A:$L,11,FALSE)</f>
-        <v>43</v>
-      </c>
-      <c r="J4">
-        <f>VLOOKUP(E4,Consolidated!$A:$L,11,FALSE)</f>
-        <v>56</v>
+      <c r="F4" t="str">
+        <f>VLOOKUP(A4,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Indonesia</v>
+      </c>
+      <c r="G4" t="str">
+        <f>VLOOKUP(B4,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Kazakhstan</v>
+      </c>
+      <c r="H4" t="str">
+        <f>VLOOKUP(C4,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Bulgaria</v>
+      </c>
+      <c r="I4" t="str">
+        <f>VLOOKUP(D4,Consolidated!$A:$L,12,FALSE)</f>
+        <v>United States</v>
+      </c>
+      <c r="J4" t="str">
+        <f>VLOOKUP(E4,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Bhutan</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -23095,21 +23095,21 @@
       <c r="E5" s="3">
         <v>144</v>
       </c>
-      <c r="F5">
-        <f>VLOOKUP(A5,Consolidated!$A:$L,11,FALSE)</f>
-        <v>54</v>
-      </c>
-      <c r="G5">
-        <f>VLOOKUP(B5,Consolidated!$A:$L,11,FALSE)</f>
-        <v>57</v>
-      </c>
-      <c r="H5">
-        <f>VLOOKUP(C5,Consolidated!$A:$L,11,FALSE)</f>
-        <v>19</v>
-      </c>
-      <c r="J5">
-        <f>VLOOKUP(E5,Consolidated!$A:$L,11,FALSE)</f>
-        <v>51</v>
+      <c r="F5" t="str">
+        <f>VLOOKUP(A5,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Lao People's Democratic Republic</v>
+      </c>
+      <c r="G5" t="str">
+        <f>VLOOKUP(B5,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Kyrgyz Republic</v>
+      </c>
+      <c r="H5" t="str">
+        <f>VLOOKUP(C5,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Croatia</v>
+      </c>
+      <c r="J5" t="str">
+        <f>VLOOKUP(E5,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Sri Lanka</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -23125,21 +23125,21 @@
       <c r="E6" s="3">
         <v>699</v>
       </c>
-      <c r="F6">
-        <f>VLOOKUP(A6,Consolidated!$A:$L,11,FALSE)</f>
-        <v>45</v>
-      </c>
-      <c r="G6">
-        <f>VLOOKUP(B6,Consolidated!$A:$L,11,FALSE)</f>
-        <v>37</v>
-      </c>
-      <c r="H6">
-        <f>VLOOKUP(C6,Consolidated!$A:$L,11,FALSE)</f>
-        <v>9</v>
-      </c>
-      <c r="J6">
-        <f>VLOOKUP(E6,Consolidated!$A:$L,11,FALSE)</f>
-        <v>22</v>
+      <c r="F6" t="str">
+        <f>VLOOKUP(A6,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Malaysia</v>
+      </c>
+      <c r="G6" t="str">
+        <f>VLOOKUP(B6,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Russian Federation</v>
+      </c>
+      <c r="H6" t="str">
+        <f>VLOOKUP(C6,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Cyprus</v>
+      </c>
+      <c r="J6" t="str">
+        <f>VLOOKUP(E6,Consolidated!$A:$L,12,FALSE)</f>
+        <v>India</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -23153,16 +23153,16 @@
         <v>462</v>
       </c>
       <c r="F7" t="str">
-        <f>VLOOKUP(A7,Consolidated!$A:$L,11,FALSE)</f>
-        <v/>
-      </c>
-      <c r="H7">
-        <f>VLOOKUP(C7,Consolidated!$A:$L,11,FALSE)</f>
-        <v>10</v>
-      </c>
-      <c r="J7">
-        <f>VLOOKUP(E7,Consolidated!$A:$L,11,FALSE)</f>
-        <v>59</v>
+        <f>VLOOKUP(A7,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Myanmar</v>
+      </c>
+      <c r="H7" t="str">
+        <f>VLOOKUP(C7,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Czech Republic</v>
+      </c>
+      <c r="J7" t="str">
+        <f>VLOOKUP(E7,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Maldives</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -23175,17 +23175,17 @@
       <c r="E8" s="3">
         <v>524</v>
       </c>
-      <c r="F8">
-        <f>VLOOKUP(A8,Consolidated!$A:$L,11,FALSE)</f>
-        <v>46</v>
-      </c>
-      <c r="H8">
-        <f>VLOOKUP(C8,Consolidated!$A:$L,11,FALSE)</f>
-        <v>12</v>
-      </c>
-      <c r="J8">
-        <f>VLOOKUP(E8,Consolidated!$A:$L,11,FALSE)</f>
-        <v>60</v>
+      <c r="F8" t="str">
+        <f>VLOOKUP(A8,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Philippines</v>
+      </c>
+      <c r="H8" t="str">
+        <f>VLOOKUP(C8,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Denmark</v>
+      </c>
+      <c r="J8" t="str">
+        <f>VLOOKUP(E8,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Nepal</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -23198,17 +23198,17 @@
       <c r="E9" s="3">
         <v>586</v>
       </c>
-      <c r="F9">
-        <f>VLOOKUP(A9,Consolidated!$A:$L,11,FALSE)</f>
-        <v>61</v>
-      </c>
-      <c r="H9">
-        <f>VLOOKUP(C9,Consolidated!$A:$L,11,FALSE)</f>
-        <v>14</v>
-      </c>
-      <c r="J9">
-        <f>VLOOKUP(E9,Consolidated!$A:$L,11,FALSE)</f>
-        <v>52</v>
+      <c r="F9" t="str">
+        <f>VLOOKUP(A9,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Singapore</v>
+      </c>
+      <c r="H9" t="str">
+        <f>VLOOKUP(C9,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Estonia</v>
+      </c>
+      <c r="J9" t="str">
+        <f>VLOOKUP(E9,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Pakistan</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -23218,13 +23218,13 @@
       <c r="C10" s="3">
         <v>246</v>
       </c>
-      <c r="F10">
-        <f>VLOOKUP(A10,Consolidated!$A:$L,11,FALSE)</f>
-        <v>47</v>
-      </c>
-      <c r="H10">
-        <f>VLOOKUP(C10,Consolidated!$A:$L,11,FALSE)</f>
-        <v>15</v>
+      <c r="F10" t="str">
+        <f>VLOOKUP(A10,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Thailand</v>
+      </c>
+      <c r="H10" t="str">
+        <f>VLOOKUP(C10,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Finland</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -23234,166 +23234,166 @@
       <c r="C11" s="3">
         <v>251</v>
       </c>
-      <c r="F11">
-        <f>VLOOKUP(A11,Consolidated!$A:$L,11,FALSE)</f>
-        <v>48</v>
-      </c>
-      <c r="H11">
-        <f>VLOOKUP(C11,Consolidated!$A:$L,11,FALSE)</f>
-        <v>16</v>
+      <c r="F11" t="str">
+        <f>VLOOKUP(A11,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Viet Nam</v>
+      </c>
+      <c r="H11" t="str">
+        <f>VLOOKUP(C11,Consolidated!$A:$L,12,FALSE)</f>
+        <v>France</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12" s="3">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="H12" t="str">
-        <f>VLOOKUP(C12,Consolidated!$A:$L,11,FALSE)</f>
-        <v/>
+        <f>VLOOKUP(C12,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Germany</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="3">
-        <v>276</v>
-      </c>
-      <c r="H13">
-        <f>VLOOKUP(C13,Consolidated!$A:$L,11,FALSE)</f>
-        <v>11</v>
+        <v>300</v>
+      </c>
+      <c r="H13" t="str">
+        <f>VLOOKUP(C13,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Greece</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C14" s="3">
-        <v>300</v>
-      </c>
-      <c r="H14">
-        <f>VLOOKUP(C14,Consolidated!$A:$L,11,FALSE)</f>
-        <v>18</v>
+        <v>348</v>
+      </c>
+      <c r="H14" t="str">
+        <f>VLOOKUP(C14,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Hungary</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15" s="3">
-        <v>348</v>
-      </c>
-      <c r="H15">
-        <f>VLOOKUP(C15,Consolidated!$A:$L,11,FALSE)</f>
-        <v>20</v>
+        <v>372</v>
+      </c>
+      <c r="H15" t="str">
+        <f>VLOOKUP(C15,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Ireland</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" s="3">
-        <v>372</v>
-      </c>
-      <c r="H16">
-        <f>VLOOKUP(C16,Consolidated!$A:$L,11,FALSE)</f>
-        <v>23</v>
+        <v>380</v>
+      </c>
+      <c r="H16" t="str">
+        <f>VLOOKUP(C16,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Italy</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C17" s="3">
-        <v>380</v>
-      </c>
-      <c r="H17">
-        <f>VLOOKUP(C17,Consolidated!$A:$L,11,FALSE)</f>
-        <v>24</v>
+        <v>428</v>
+      </c>
+      <c r="H17" t="str">
+        <f>VLOOKUP(C17,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Latvia</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C18" s="3">
-        <v>428</v>
-      </c>
-      <c r="H18">
-        <f>VLOOKUP(C18,Consolidated!$A:$L,11,FALSE)</f>
-        <v>29</v>
+        <v>440</v>
+      </c>
+      <c r="H18" t="str">
+        <f>VLOOKUP(C18,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Lithuania</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C19" s="3">
-        <v>440</v>
-      </c>
-      <c r="H19">
-        <f>VLOOKUP(C19,Consolidated!$A:$L,11,FALSE)</f>
-        <v>27</v>
+        <v>442</v>
+      </c>
+      <c r="H19" t="str">
+        <f>VLOOKUP(C19,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Luxembourg</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C20" s="3">
-        <v>442</v>
-      </c>
-      <c r="H20">
-        <f>VLOOKUP(C20,Consolidated!$A:$L,11,FALSE)</f>
-        <v>28</v>
+        <v>470</v>
+      </c>
+      <c r="H20" t="str">
+        <f>VLOOKUP(C20,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Malta</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C21" s="3">
         <v>528</v>
       </c>
-      <c r="H21">
-        <f>VLOOKUP(C21,Consolidated!$A:$L,11,FALSE)</f>
-        <v>32</v>
+      <c r="H21" t="str">
+        <f>VLOOKUP(C21,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Netherlands</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C22" s="3">
         <v>616</v>
       </c>
-      <c r="H22">
-        <f>VLOOKUP(C22,Consolidated!$A:$L,11,FALSE)</f>
-        <v>34</v>
+      <c r="H22" t="str">
+        <f>VLOOKUP(C22,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Poland</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C23" s="3">
         <v>620</v>
       </c>
-      <c r="H23">
-        <f>VLOOKUP(C23,Consolidated!$A:$L,11,FALSE)</f>
-        <v>35</v>
+      <c r="H23" t="str">
+        <f>VLOOKUP(C23,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Portugal</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C24" s="3">
         <v>642</v>
       </c>
-      <c r="H24">
-        <f>VLOOKUP(C24,Consolidated!$A:$L,11,FALSE)</f>
-        <v>36</v>
+      <c r="H24" t="str">
+        <f>VLOOKUP(C24,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Romania</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C25" s="3">
         <v>703</v>
       </c>
-      <c r="H25">
-        <f>VLOOKUP(C25,Consolidated!$A:$L,11,FALSE)</f>
-        <v>38</v>
+      <c r="H25" t="str">
+        <f>VLOOKUP(C25,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Slovak Republic</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C26" s="3">
         <v>705</v>
       </c>
-      <c r="H26">
-        <f>VLOOKUP(C26,Consolidated!$A:$L,11,FALSE)</f>
-        <v>39</v>
+      <c r="H26" t="str">
+        <f>VLOOKUP(C26,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Slovenia</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C27" s="3">
         <v>724</v>
       </c>
-      <c r="H27">
-        <f>VLOOKUP(C27,Consolidated!$A:$L,11,FALSE)</f>
-        <v>13</v>
+      <c r="H27" t="str">
+        <f>VLOOKUP(C27,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Spain</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C28" s="3">
         <v>752</v>
       </c>
-      <c r="H28">
-        <f>VLOOKUP(C28,Consolidated!$A:$L,11,FALSE)</f>
-        <v>40</v>
+      <c r="H28" t="str">
+        <f>VLOOKUP(C28,Consolidated!$A:$L,12,FALSE)</f>
+        <v>Sweden</v>
       </c>
     </row>
   </sheetData>
@@ -23406,10 +23406,10 @@
   <dimension ref="A1:F270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F117" sqref="F117"/>
+      <selection pane="bottomRight" activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
